--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>10.7354211281076</v>
+        <v>0.132884</v>
       </c>
       <c r="N2">
-        <v>10.7354211281076</v>
+        <v>0.398652</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01195569974366677</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01195569974366677</v>
       </c>
       <c r="Q2">
-        <v>7.336226807466589</v>
+        <v>0.099280161196</v>
       </c>
       <c r="R2">
-        <v>7.336226807466589</v>
+        <v>0.8935214507639999</v>
       </c>
       <c r="S2">
-        <v>0.02858827872672789</v>
+        <v>0.0003702626236094501</v>
       </c>
       <c r="T2">
-        <v>0.02858827872672789</v>
+        <v>0.0003702626236094501</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.5922617627955</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>19.5922617627955</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.8196320236006495</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.8196320236006495</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>10.7354211281076</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N3">
-        <v>10.7354211281076</v>
+        <v>0.220589</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.006615533976389704</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.006615533976389703</v>
       </c>
       <c r="Q3">
-        <v>210.3311808757294</v>
+        <v>0.05493541103033334</v>
       </c>
       <c r="R3">
-        <v>210.3311808757294</v>
+        <v>0.494418699273</v>
       </c>
       <c r="S3">
-        <v>0.8196320236006495</v>
+        <v>0.0002048801006376113</v>
       </c>
       <c r="T3">
-        <v>0.8196320236006495</v>
+        <v>0.0002048801006376112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,424 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.6281007591876</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>3.6281007591876</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.1517796976726226</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.1517796976726226</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.7354211281076</v>
+        <v>10.908285</v>
       </c>
       <c r="N4">
-        <v>10.7354211281076</v>
+        <v>32.724855</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9814287662799436</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9814287662799435</v>
       </c>
       <c r="Q4">
-        <v>38.94918954508579</v>
+        <v>8.149786980915</v>
       </c>
       <c r="R4">
-        <v>38.94918954508579</v>
+        <v>73.34808282823499</v>
       </c>
       <c r="S4">
-        <v>0.1517796976726226</v>
+        <v>0.03039440582146542</v>
       </c>
       <c r="T4">
-        <v>0.1517796976726226</v>
+        <v>0.03039440582146542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>19.74619233333334</v>
+      </c>
+      <c r="H5">
+        <v>59.23857700000001</v>
+      </c>
+      <c r="I5">
+        <v>0.8185184181638298</v>
+      </c>
+      <c r="J5">
+        <v>0.8185184181638298</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.132884</v>
+      </c>
+      <c r="N5">
+        <v>0.398652</v>
+      </c>
+      <c r="O5">
+        <v>0.01195569974366677</v>
+      </c>
+      <c r="P5">
+        <v>0.01195569974366677</v>
+      </c>
+      <c r="Q5">
+        <v>2.623953022022667</v>
+      </c>
+      <c r="R5">
+        <v>23.615577198204</v>
+      </c>
+      <c r="S5">
+        <v>0.009785960442227825</v>
+      </c>
+      <c r="T5">
+        <v>0.009785960442227825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>19.74619233333334</v>
+      </c>
+      <c r="H6">
+        <v>59.23857700000001</v>
+      </c>
+      <c r="I6">
+        <v>0.8185184181638298</v>
+      </c>
+      <c r="J6">
+        <v>0.8185184181638298</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.07352966666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.220589</v>
+      </c>
+      <c r="O6">
+        <v>0.006615533976389704</v>
+      </c>
+      <c r="P6">
+        <v>0.006615533976389703</v>
+      </c>
+      <c r="Q6">
+        <v>1.451930940205889</v>
+      </c>
+      <c r="R6">
+        <v>13.067378461853</v>
+      </c>
+      <c r="S6">
+        <v>0.005414936405663572</v>
+      </c>
+      <c r="T6">
+        <v>0.005414936405663571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>19.74619233333334</v>
+      </c>
+      <c r="H7">
+        <v>59.23857700000001</v>
+      </c>
+      <c r="I7">
+        <v>0.8185184181638298</v>
+      </c>
+      <c r="J7">
+        <v>0.8185184181638298</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.908285</v>
+      </c>
+      <c r="N7">
+        <v>32.724855</v>
+      </c>
+      <c r="O7">
+        <v>0.9814287662799436</v>
+      </c>
+      <c r="P7">
+        <v>0.9814287662799435</v>
+      </c>
+      <c r="Q7">
+        <v>215.397093636815</v>
+      </c>
+      <c r="R7">
+        <v>1938.573842731335</v>
+      </c>
+      <c r="S7">
+        <v>0.8033175213159384</v>
+      </c>
+      <c r="T7">
+        <v>0.8033175213159383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.630999</v>
+      </c>
+      <c r="H8">
+        <v>10.892997</v>
+      </c>
+      <c r="I8">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J8">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.132884</v>
+      </c>
+      <c r="N8">
+        <v>0.398652</v>
+      </c>
+      <c r="O8">
+        <v>0.01195569974366677</v>
+      </c>
+      <c r="P8">
+        <v>0.01195569974366677</v>
+      </c>
+      <c r="Q8">
+        <v>0.482501671116</v>
+      </c>
+      <c r="R8">
+        <v>4.342515040044</v>
+      </c>
+      <c r="S8">
+        <v>0.001799476677829488</v>
+      </c>
+      <c r="T8">
+        <v>0.001799476677829489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.630999</v>
+      </c>
+      <c r="H9">
+        <v>10.892997</v>
+      </c>
+      <c r="I9">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J9">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.07352966666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.220589</v>
+      </c>
+      <c r="O9">
+        <v>0.006615533976389704</v>
+      </c>
+      <c r="P9">
+        <v>0.006615533976389703</v>
+      </c>
+      <c r="Q9">
+        <v>0.266986146137</v>
+      </c>
+      <c r="R9">
+        <v>2.402875315233</v>
+      </c>
+      <c r="S9">
+        <v>0.000995717470088521</v>
+      </c>
+      <c r="T9">
+        <v>0.000995717470088521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.630999</v>
+      </c>
+      <c r="H10">
+        <v>10.892997</v>
+      </c>
+      <c r="I10">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="J10">
+        <v>0.1505120332904577</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.908285</v>
+      </c>
+      <c r="N10">
+        <v>32.724855</v>
+      </c>
+      <c r="O10">
+        <v>0.9814287662799436</v>
+      </c>
+      <c r="P10">
+        <v>0.9814287662799435</v>
+      </c>
+      <c r="Q10">
+        <v>39.607971926715</v>
+      </c>
+      <c r="R10">
+        <v>356.4717473404349</v>
+      </c>
+      <c r="S10">
+        <v>0.1477168391425397</v>
+      </c>
+      <c r="T10">
+        <v>0.1477168391425397</v>
       </c>
     </row>
   </sheetData>
